--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail11 Features.xlsx
@@ -6766,7 +6766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6777,29 +6777,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6820,115 +6818,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6945,72 +6933,66 @@
         <v>4.509301575816623e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.08441127387242155</v>
+        <v>2.76063140792885e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.004240496983542119</v>
+        <v>2.267802681573915e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.76063140792885e-07</v>
+        <v>-0.0743487206232317</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.267802681573915e-06</v>
+        <v>0.4815717690468026</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0743487206232317</v>
+        <v>0.2368268620948929</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4815717690468026</v>
+        <v>1.792417614678355</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2368268620948929</v>
+        <v>1.621666445790145</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.727845024659275</v>
+        <v>4.661012766492862</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.621666445790145</v>
+        <v>1.012300060733183e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.661012766492862</v>
+        <v>159723250.7531916</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.012300060733183e-15</v>
+        <v>7.340841760329492e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>159723250.7531916</v>
+        <v>25.82531003758587</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.340841760329492e-07</v>
+        <v>0.0001187068983075182</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25.82531003758587</v>
+        <v>7.915210278084691</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001187068983075182</v>
+        <v>1.634694124344807</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.915210278084691</v>
+        <v>0.007437052912471443</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.634694124344807</v>
+        <v>3.182893765838249</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007437052912471443</v>
+        <v>0.9570520091449164</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.182893765838249</v>
+        <v>1.674237210125519</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9570520091449164</v>
+        <v>47</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.674237210125519</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3207107182765065</v>
       </c>
     </row>
@@ -7025,72 +7007,66 @@
         <v>4.167354914208335e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3140441572044663</v>
+        <v>1.600352030169551e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.159889263998295</v>
+        <v>2.2653834439912e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.600352030169551e-07</v>
+        <v>-0.03893488926644335</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.2653834439912e-06</v>
+        <v>0.3831428709164422</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03893488926644335</v>
+        <v>0.1479741041433023</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3831428709164422</v>
+        <v>1.804413781834517</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1479741041433023</v>
+        <v>1.679070343446187</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.737562447612413</v>
+        <v>4.837922591937515</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.679070343446187</v>
+        <v>6.392157117353661e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.837922591937515</v>
+        <v>253344657.0766961</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.392157117353661e-16</v>
+        <v>4.642286103595274e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>253344657.0766961</v>
+        <v>41.02711139454892</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.642286103595274e-07</v>
+        <v>0.0001159616603330923</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>41.02711139454892</v>
+        <v>7.608599066954514</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001159616603330923</v>
+        <v>1.652615572464745</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.608599066954514</v>
+        <v>0.006713110939139599</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.652615572464745</v>
+        <v>3.233933569487287</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006713110939139599</v>
+        <v>0.9574873929764671</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.233933569487287</v>
+        <v>1.676616728802889</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9574873929764671</v>
+        <v>47</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.676616728802889</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3132817962961719</v>
       </c>
     </row>
@@ -7105,72 +7081,66 @@
         <v>4.144566302023721e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2724792935057291</v>
+        <v>1.375750410472299e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.181114533874671</v>
+        <v>2.264361763436846e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.375750410472299e-07</v>
+        <v>-0.01263086844508481</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.264361763436846e-06</v>
+        <v>0.3043203334334514</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01263086844508481</v>
+        <v>0.09263095361629743</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3043203334334514</v>
+        <v>1.820230647551242</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09263095361629743</v>
+        <v>1.890371098378261</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.764194997542176</v>
+        <v>4.534923881344493</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.890371098378261</v>
+        <v>5.320170009474616e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.534923881344493</v>
+        <v>303266333.2348194</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.320170009474616e-16</v>
+        <v>3.883884753026599e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>303266333.2348194</v>
+        <v>48.92985302591375</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.883884753026599e-07</v>
+        <v>0.0001282042955425466</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>48.92985302591375</v>
+        <v>8.088974733070987</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001282042955425466</v>
+        <v>1.480656619462813</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.088974733070987</v>
+        <v>0.008388600932020523</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.480656619462813</v>
+        <v>3.153163033134855</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008388600932020523</v>
+        <v>0.9600655187966406</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.153163033134855</v>
+        <v>1.644712281141839</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9600655187966406</v>
+        <v>47</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.644712281141839</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2907926721383932</v>
       </c>
     </row>
@@ -7185,72 +7155,66 @@
         <v>4.154299663451002e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.261450896653483</v>
+        <v>1.375750410472299e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.199379784310509</v>
+        <v>2.264181076428485e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.375750410472299e-07</v>
+        <v>0.001974064041355198</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.264181076428485e-06</v>
+        <v>0.2695489131447452</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.001974064041355198</v>
+        <v>0.07262064822221528</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2695489131447452</v>
+        <v>1.837350776897986</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07262064822221528</v>
+        <v>1.926143256416359</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.786522633447672</v>
+        <v>4.34715548410668</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.926143256416359</v>
+        <v>5.789688079943501e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.34715548410668</v>
+        <v>281628388.0685959</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.789688079943501e-16</v>
+        <v>4.209889576154728e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>281628388.0685959</v>
+        <v>45.92064987152148</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.209889576154728e-07</v>
+        <v>0.0001403135881547928</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45.92064987152148</v>
+        <v>9.049117423578378</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001403135881547928</v>
+        <v>1.278631150099616</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.049117423578378</v>
+        <v>0.01148979230503579</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.278631150099616</v>
+        <v>2.975653996636435</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01148979230503579</v>
+        <v>0.9612098323222674</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.975653996636435</v>
+        <v>1.612114875695678</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9612098323222674</v>
+        <v>40</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.612114875695678</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2965151295708983</v>
       </c>
     </row>
@@ -7265,72 +7229,66 @@
         <v>4.127002643452203e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2581781806297668</v>
+        <v>1.375750410472299e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.187252731665255</v>
+        <v>2.264405585765114e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.375750410472299e-07</v>
+        <v>0.007622708026912393</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.264405585765114e-06</v>
+        <v>0.2635191675244337</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.007622708026912393</v>
+        <v>0.069493190931692</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2635191675244337</v>
+        <v>1.844490350473925</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.069493190931692</v>
+        <v>1.742777662224671</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.798439494639996</v>
+        <v>4.393073574736893</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.742777662224671</v>
+        <v>5.669288534185215e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.393073574736893</v>
+        <v>291203188.6727653</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.669288534185215e-16</v>
+        <v>4.076882020311283e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>291203188.6727653</v>
+        <v>48.07516827173657</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.076882020311283e-07</v>
+        <v>0.0001304407998422999</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>48.07516827173657</v>
+        <v>9.209087728083833</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001304407998422999</v>
+        <v>1.15735118547976</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.209087728083833</v>
+        <v>0.01106233162490882</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.15735118547976</v>
+        <v>2.928059768583889</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01106233162490882</v>
+        <v>0.9603375025831246</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.928059768583889</v>
+        <v>1.647492732116753</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9603375025831246</v>
+        <v>40</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.647492732116753</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3128029738970508</v>
       </c>
     </row>
@@ -7345,72 +7303,66 @@
         <v>4.075928331354069e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2377465185640173</v>
+        <v>1.375750410472299e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.198944761928177</v>
+        <v>2.264755922318176e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.375750410472299e-07</v>
+        <v>0.009148869707903018</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.264755922318176e-06</v>
+        <v>0.2657592493108749</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.009148869707903018</v>
+        <v>0.0707084180665592</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2657592493108749</v>
+        <v>1.88054868717325</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0707084180665592</v>
+        <v>1.922125718343631</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.855513783403319</v>
+        <v>3.890563148577288</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.922125718343631</v>
+        <v>5.348526509248488e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.890563148577288</v>
+        <v>304321830.8871783</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.348526509248488e-16</v>
+        <v>3.934308309362386e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>304321830.8871783</v>
+        <v>49.53365430401763</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.934308309362386e-07</v>
+        <v>0.000118682775212541</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>49.53365430401763</v>
+        <v>7.926215574771874</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000118682775212541</v>
+        <v>1.175917726595671</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.926215574771874</v>
+        <v>0.007456232693756787</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.175917726595671</v>
+        <v>3.115775784474756</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007456232693756787</v>
+        <v>0.9595653081508708</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.115775784474756</v>
+        <v>1.553811099162369</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9595653081508708</v>
+        <v>39</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.553811099162369</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3177038776483398</v>
       </c>
     </row>
@@ -7425,72 +7377,66 @@
         <v>4.012559945366193e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.198192282371583</v>
+        <v>1.375750410472299e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.255267939193751</v>
+        <v>2.265141038790529e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.375750410472299e-07</v>
+        <v>0.009731782695318608</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.265141038790529e-06</v>
+        <v>0.2697058842078656</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.009731782695318608</v>
+        <v>0.07283442125832001</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2697058842078656</v>
+        <v>1.891616898021474</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07283442125832001</v>
+        <v>2.055299531180142</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.867597100238645</v>
+        <v>4.21510070795526</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.055299531180142</v>
+        <v>4.556623857341756e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.21510070795526</v>
+        <v>365053128.927001</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.556623857341756e-16</v>
+        <v>3.288796345431342e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>365053128.927001</v>
+        <v>60.72329508877497</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.288796345431342e-07</v>
+        <v>0.0001222831081504</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>60.72329508877497</v>
+        <v>7.436067886000705</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001222831081504</v>
+        <v>1.323706157033439</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.436067886000705</v>
+        <v>0.006761657378909806</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.323706157033439</v>
+        <v>3.191312433944272</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006761657378909806</v>
+        <v>0.9600304155977961</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.191312433944272</v>
+        <v>1.531381047695937</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9600304155977961</v>
+        <v>39</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.531381047695937</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3041958188277594</v>
       </c>
     </row>
@@ -7505,72 +7451,66 @@
         <v>3.943859623720807e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.1423057331618969</v>
+        <v>1.37502868627093e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.359299815798567</v>
+        <v>2.265524902473834e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.37502868627093e-07</v>
+        <v>0.009328325550126861</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.265524902473834e-06</v>
+        <v>0.2745264541224354</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.009328325550126861</v>
+        <v>0.07545157732021804</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2745264541224354</v>
+        <v>1.889374138588773</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07545157732021804</v>
+        <v>2.124861540488826</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.865783546169162</v>
+        <v>4.418578137436969</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.124861540488826</v>
+        <v>4.681899914839559e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.418578137436969</v>
+        <v>357441006.2247394</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.681899914839559e-16</v>
+        <v>3.362015917643886e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>357441006.2247394</v>
+        <v>59.81786021749897</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.362015917643886e-07</v>
+        <v>0.0001389257356036101</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>59.81786021749897</v>
+        <v>8.28056757790163</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001389257356036101</v>
+        <v>1.368921249996547</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.28056757790163</v>
+        <v>0.009525831972060066</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.368921249996547</v>
+        <v>3.12111367285272</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009525831972060066</v>
+        <v>0.9586473514842446</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.12111367285272</v>
+        <v>1.505838911922595</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9586473514842446</v>
+        <v>39</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.505838911922595</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2973931264681048</v>
       </c>
     </row>
@@ -7585,72 +7525,66 @@
         <v>3.882882031320687e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.08638375969478566</v>
+        <v>1.326331794451734e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.472213050007641</v>
+        <v>2.265855736792048e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.326331794451734e-07</v>
+        <v>0.007252399888437941</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.265855736792048e-06</v>
+        <v>0.2783525358414718</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.007252399888437941</v>
+        <v>0.07752890851063662</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2783525358414718</v>
+        <v>1.897130473010494</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.07752890851063662</v>
+        <v>1.920620856796088</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.866501546686618</v>
+        <v>4.657853543021563</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.920620856796088</v>
+        <v>5.466009689076904e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.657853543021563</v>
+        <v>294813089.4099607</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.466009689076904e-16</v>
+        <v>4.077769312225436e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>294813089.4099607</v>
+        <v>47.50769076433483</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.077769312225436e-07</v>
+        <v>0.0001623222511123687</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>47.50769076433483</v>
+        <v>10.46054152825106</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001623222511123687</v>
+        <v>1.190798491006884</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.46054152825106</v>
+        <v>0.01776177616902054</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.190798491006884</v>
+        <v>2.928298004046564</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01776177616902054</v>
+        <v>0.9596911334033278</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.928298004046564</v>
+        <v>1.550539872872444</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9596911334033278</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.550539872872444</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3396517496049231</v>
       </c>
     </row>
@@ -7665,72 +7599,66 @@
         <v>3.847608416329312e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.05604285534173628</v>
+        <v>1.183644340987979e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.528619368724076</v>
+        <v>2.266056766586653e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.183644340987979e-07</v>
+        <v>0.002741372025184644</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.266056766586653e-06</v>
+        <v>0.2770244547475542</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.002741372025184644</v>
+        <v>0.07673212001970571</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2770244547475542</v>
+        <v>1.897776948967728</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.07673212001970571</v>
+        <v>1.855907434271409</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.866839267442074</v>
+        <v>4.393409211954591</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.855907434271409</v>
+        <v>6.271600903728778e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.393409211954591</v>
+        <v>254609722.8808036</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.271600903728778e-16</v>
+        <v>4.729257776581385e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>254609722.8808036</v>
+        <v>40.65634962415051</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.729257776581385e-07</v>
+        <v>0.0001887224597717034</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>40.65634962415051</v>
+        <v>13.04759212408494</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001887224597717034</v>
+        <v>0.9965686630967829</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.04759212408494</v>
+        <v>0.03212804743052819</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9965686630967829</v>
+        <v>2.618035453586134</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03212804743052819</v>
+        <v>0.9584782714648186</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.618035453586134</v>
+        <v>1.530970666175841</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9584782714648186</v>
+        <v>20</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.530970666175841</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4374186362266116</v>
       </c>
     </row>
@@ -7745,72 +7673,66 @@
         <v>3.851205660728197e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.05622297032539571</v>
+        <v>1.160799504936084e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.530804357271416</v>
+        <v>2.26602194296377e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.160799504936084e-07</v>
+        <v>-0.005028787227037998</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.26602194296377e-06</v>
+        <v>0.2646901948487497</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.005028787227037998</v>
+        <v>0.07004279520855421</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2646901948487497</v>
+        <v>1.907197072202411</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.07004279520855421</v>
+        <v>1.921456688196399</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.887107959341173</v>
+        <v>4.295255591244138</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.921456688196399</v>
+        <v>6.561508608757175e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.295255591244138</v>
+        <v>236781942.9824902</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.561508608757175e-16</v>
+        <v>5.084385718988574e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>236781942.9824902</v>
+        <v>36.7875497896697</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.084385718988574e-07</v>
+        <v>0.0001978459924759642</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>36.7875497896697</v>
+        <v>11.61260099609047</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001978459924759642</v>
+        <v>1.158121462055326</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.61260099609047</v>
+        <v>0.02668002707516469</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.158121462055326</v>
+        <v>2.704704682050219</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02668002707516469</v>
+        <v>0.9564988291804437</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.704704682050219</v>
+        <v>1.47524044828888</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9564988291804437</v>
+        <v>17</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.47524044828888</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.4318935784180817</v>
       </c>
     </row>
@@ -7825,72 +7747,66 @@
         <v>3.883990624789144e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.04915703392756619</v>
+        <v>1.160799504936084e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.551199463421083</v>
+        <v>2.265639289849824e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.160799504936084e-07</v>
+        <v>-0.0144484109484562</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.265639289849824e-06</v>
+        <v>0.2410559482650059</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0144484109484562</v>
+        <v>0.05826048319575594</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2410559482650059</v>
+        <v>1.908802765103427</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05826048319575594</v>
+        <v>1.656511479595699</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.894223021597025</v>
+        <v>5.408004977397491</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.656511479595699</v>
+        <v>5.200407030462449e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.408004977397491</v>
+        <v>284584721.4336199</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.200407030462449e-16</v>
+        <v>4.223309776294769e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>284584721.4336199</v>
+        <v>42.11729758737673</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.223309776294769e-07</v>
+        <v>0.0001874794171583996</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>42.11729758737673</v>
+        <v>10.29516824664958</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001874794171583996</v>
+        <v>1.235152308298985</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.29516824664958</v>
+        <v>0.01987103514457819</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.235152308298985</v>
+        <v>2.767419093866704</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01987103514457819</v>
+        <v>0.956961691754987</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.767419093866704</v>
+        <v>1.442065576184796</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.956961691754987</v>
+        <v>17</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.442065576184796</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4438857026009219</v>
       </c>
     </row>
@@ -7905,72 +7821,66 @@
         <v>3.903435255367901e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.00622538597074043</v>
+        <v>1.160799504936084e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.573249673024889</v>
+        <v>2.264940632751991e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.160799504936084e-07</v>
+        <v>-0.02011699881346394</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.264940632751991e-06</v>
+        <v>0.2244033323711548</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02011699881346394</v>
+        <v>0.05071629415473965</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2244033323711548</v>
+        <v>1.901358916229066</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05071629415473965</v>
+        <v>1.659616913019601</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.886915547309324</v>
+        <v>5.296951718738995</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.659616913019601</v>
+        <v>5.213593666460885e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.296951718738995</v>
+        <v>281517345.6745864</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.213593666460885e-16</v>
+        <v>4.26272764044344e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>281517345.6745864</v>
+        <v>41.31878082321661</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.26272764044344e-07</v>
+        <v>0.0001559319102711846</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>41.31878082321661</v>
+        <v>9.905193475667634</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001559319102711846</v>
+        <v>1.212512684736255</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.905193475667634</v>
+        <v>0.0152989253374235</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.212512684736255</v>
+        <v>3.059628100420698</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0152989253374235</v>
+        <v>0.956899985679349</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.059628100420698</v>
+        <v>1.419822078133532</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.956899985679349</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.419822078133532</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5390196034385959</v>
       </c>
     </row>
@@ -7985,72 +7895,66 @@
         <v>3.880579006294626e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.03859445492824989</v>
+        <v>1.160799504936084e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.549790229258619</v>
+        <v>2.26418575643317e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.160799504936084e-07</v>
+        <v>-0.01674900893689235</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.26418575643317e-06</v>
+        <v>0.2345651185091746</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01674900893689235</v>
+        <v>0.0552506786492858</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2345651185091746</v>
+        <v>1.885948669311859</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0552506786492858</v>
+        <v>1.582588878236111</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.8593422718252</v>
+        <v>4.962231242484751</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.582588878236111</v>
+        <v>9.259758733281715e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.962231242484751</v>
+        <v>158614473.7888364</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.259758733281715e-16</v>
+        <v>7.570116979395301e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>158614473.7888364</v>
+        <v>23.2962115073458</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.570116979395301e-07</v>
+        <v>0.0001402150275866668</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>23.2962115073458</v>
+        <v>11.46136933521866</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001402150275866668</v>
+        <v>1.525994385343693</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.46136933521866</v>
+        <v>0.01841906485144086</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.525994385343693</v>
+        <v>3.394864167876426</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01841906485144086</v>
+        <v>0.954868262466236</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.394864167876426</v>
+        <v>1.481779803734368</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.954868262466236</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.481779803734368</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.6098944786250614</v>
       </c>
     </row>
@@ -8065,72 +7969,66 @@
         <v>3.845479756464003e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.04645847681712256</v>
+        <v>1.160799504936084e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.528620206171982</v>
+        <v>2.263768269601264e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.160799504936084e-07</v>
+        <v>-0.002991455009978668</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.263768269601264e-06</v>
+        <v>0.2715442138058222</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.002991455009978668</v>
+        <v>0.07364215878394832</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2715442138058222</v>
+        <v>1.863675507227321</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.07364215878394832</v>
+        <v>1.512389008095012</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.828697841114993</v>
+        <v>4.336598900392337</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.512389008095012</v>
+        <v>1.891507728359779e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.336598900392337</v>
+        <v>79704021.86136755</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.891507728359779e-15</v>
+        <v>1.498784570776683e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>79704021.86136755</v>
+        <v>12.01623997350105</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.498784570776683e-06</v>
+        <v>0.0001840783783958766</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>12.01623997350105</v>
+        <v>11.56211451264577</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001840783783958766</v>
+        <v>1.385349579816239</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.56211451264577</v>
+        <v>0.02460805634793025</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.385349579816239</v>
+        <v>2.953999635816058</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02460805634793025</v>
+        <v>0.9535914602616395</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.953999635816058</v>
+        <v>1.551329179333754</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9535914602616395</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.551329179333754</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3217314155852233</v>
       </c>
     </row>
@@ -8145,72 +8043,66 @@
         <v>3.900756707873848e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.09830930371966921</v>
+        <v>1.61633090896203e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.419760529541242</v>
+        <v>2.264072168237815e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.61633090896203e-07</v>
+        <v>0.02007646892898166</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.264072168237815e-06</v>
+        <v>0.3274993410564577</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02007646892898166</v>
+        <v>0.1074810699964402</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3274993410564577</v>
+        <v>1.797411961849278</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1074810699964402</v>
+        <v>1.517542074229295</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.753181954455244</v>
+        <v>3.647875664596524</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.517542074229295</v>
+        <v>2.751319235878339e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.647875664596524</v>
+        <v>56472963.06293897</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.751319235878339e-15</v>
+        <v>2.041724380356827e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>56472963.06293897</v>
+        <v>8.774495083249167</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.041724380356827e-06</v>
+        <v>0.0002104638025456008</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.774495083249167</v>
+        <v>12.2226547181825</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002104638025456008</v>
+        <v>1.089917080355653</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.2226547181825</v>
+        <v>0.03144187954301788</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.089917080355653</v>
+        <v>2.441992701973022</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03144187954301788</v>
+        <v>0.9520175418577369</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.441992701973022</v>
+        <v>1.565556141436648</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9520175418577369</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.565556141436648</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.200049659384865</v>
       </c>
     </row>
@@ -8225,72 +8117,66 @@
         <v>4.208727862473679e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5081721629339016</v>
+        <v>2.24484608769965e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.08020849889076409</v>
+        <v>2.265372755859302e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.24484608769965e-07</v>
+        <v>0.04310914200039841</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.265372755859302e-06</v>
+        <v>0.3574901315447619</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04310914200039841</v>
+        <v>0.1295419316812423</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3574901315447619</v>
+        <v>1.61788673219537</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.1295419316812423</v>
+        <v>1.457137889488721</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.551580492552436</v>
+        <v>6.25491611332806</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.457137889488721</v>
+        <v>4.436013420449032e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.25491611332806</v>
+        <v>39527685.40895047</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.436013420449032e-15</v>
+        <v>2.5827338072972e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>39527685.40895047</v>
+        <v>6.930995554186197</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.5827338072972e-06</v>
+        <v>0.0002057563149478969</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>6.930995554186197</v>
+        <v>11.68999318227105</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002057563149478969</v>
+        <v>1.102917314469059</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.68999318227105</v>
+        <v>0.02811782275391233</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.102917314469059</v>
+        <v>2.399899790736862</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02811782275391233</v>
+        <v>0.9399464923873158</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.399899790736862</v>
+        <v>1.837081877665652</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9399464923873158</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.837081877665652</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1767939717585253</v>
       </c>
     </row>
@@ -8305,72 +8191,66 @@
         <v>4.800947495740015e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.173863926808834</v>
+        <v>2.682465140684464e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.382771056167961</v>
+        <v>2.267618562631654e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.682465140684464e-07</v>
+        <v>0.05478460682180805</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.267618562631654e-06</v>
+        <v>0.332529976208654</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.05478460682180805</v>
+        <v>0.1135474286200877</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.332529976208654</v>
+        <v>1.59482563640765</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.1135474286200877</v>
+        <v>1.418177559850204</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.523525932103814</v>
+        <v>4.665840866001073</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.418177559850204</v>
+        <v>9.762785780585427e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.665840866001073</v>
+        <v>18850684.90552267</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.762785780585427e-15</v>
+        <v>5.447270381061088e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>18850684.90552267</v>
+        <v>3.469189539390091</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.447270381061088e-06</v>
+        <v>0.0002154606904688965</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3.469189539390091</v>
+        <v>8.722685768858311</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002154606904688965</v>
+        <v>1.839963653084351</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.722685768858311</v>
+        <v>0.0163933798579091</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.839963653084351</v>
+        <v>2.769883845135785</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0163933798579091</v>
+        <v>0.9376855421441956</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.769883845135785</v>
+        <v>1.882998189862117</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9376855421441956</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.882998189862117</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1361756766179165</v>
       </c>
     </row>
@@ -8385,72 +8265,66 @@
         <v>5.525709877529242e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.617652647221604</v>
+        <v>2.917618017366321e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3.698801058705124</v>
+        <v>2.270538995044226e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.917618017366321e-07</v>
+        <v>0.05748117096300021</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.270538995044226e-06</v>
+        <v>0.2916465828139038</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05748117096300021</v>
+        <v>0.08835384497406405</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2916465828139038</v>
+        <v>1.550024992156069</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.08835384497406405</v>
+        <v>1.42003646239771</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.47357470470568</v>
+        <v>4.253581534240076</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.42003646239771</v>
+        <v>1.174692189702314e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.253581534240076</v>
+        <v>15942508.80073832</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.174692189702314e-14</v>
+        <v>6.30861864239089e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>15942508.80073832</v>
+        <v>2.985639803930694</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.30861864239089e-06</v>
+        <v>0.0001677003403283246</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2.985639803930694</v>
+        <v>8.788690314503889</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001677003403283246</v>
+        <v>1.494175904621373</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.788690314503889</v>
+        <v>0.01295335497472795</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.494175904621373</v>
+        <v>2.873839262389025</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01295335497472795</v>
+        <v>0.9369396199958627</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.873839262389025</v>
+        <v>1.90253525960225</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9369396199958627</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.90253525960225</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1448517152870939</v>
       </c>
     </row>
@@ -8465,72 +8339,66 @@
         <v>6.266025728032844e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.794682574516231</v>
+        <v>3.059304215159731e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3.795985398546469</v>
+        <v>2.273919209739268e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.059304215159731e-07</v>
+        <v>0.05689983636763521</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.273919209739268e-06</v>
+        <v>0.2568593999413868</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05689983636763521</v>
+        <v>0.06921127743953513</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2568593999413868</v>
+        <v>1.530833355625812</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.06921127743953513</v>
+        <v>1.428126102310897</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.451032742555076</v>
+        <v>4.196619472260854</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.428126102310897</v>
+        <v>1.20679755680298e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.196619472260854</v>
+        <v>15519007.79754516</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.20679755680298e-14</v>
+        <v>6.419218840343741e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>15519007.79754516</v>
+        <v>2.906446445062582</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.419218840343741e-06</v>
+        <v>0.0001496365191933707</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2.906446445062582</v>
+        <v>9.510915198268982</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001496365191933707</v>
+        <v>1.167512282690857</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.510915198268982</v>
+        <v>0.01353574661835927</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.167512282690857</v>
+        <v>2.751573164021222</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01353574661835927</v>
+        <v>0.9377151274694756</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.751573164021222</v>
+        <v>1.895762005081864</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9377151274694756</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.895762005081864</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.16107911470499</v>
       </c>
     </row>
@@ -8545,72 +8413,66 @@
         <v>6.981123240240632e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.82209825991669</v>
+        <v>3.158172759773381e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3.368429771296778</v>
+        <v>2.277633019200415e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.158172759773381e-07</v>
+        <v>0.05498152502711477</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.277633019200415e-06</v>
+        <v>0.2300620405899159</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05498152502711477</v>
+        <v>0.05595093238465016</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2300620405899159</v>
+        <v>1.525404089333342</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05595093238465016</v>
+        <v>1.434934854495213</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.44505544690249</v>
+        <v>4.156562605144517</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.434934854495213</v>
+        <v>1.230169493304552e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.156562605144517</v>
+        <v>15174739.28796217</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.230169493304552e-14</v>
+        <v>6.53796877418536e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>15174739.28796217</v>
+        <v>2.832744660058586</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.53796877418536e-06</v>
+        <v>0.0001511767937648826</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2.832744660058586</v>
+        <v>9.772612623525783</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001511767937648826</v>
+        <v>1.178196349194802</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.772612623525783</v>
+        <v>0.01443798208511958</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.178196349194802</v>
+        <v>2.614756020522186</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01443798208511958</v>
+        <v>0.9366276355771173</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.614756020522186</v>
+        <v>1.906631176059909</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9366276355771173</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.906631176059909</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1685060242853487</v>
       </c>
     </row>
@@ -8625,72 +8487,66 @@
         <v>7.648198236978907e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.774162152135358</v>
+        <v>3.197141243025763e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.772188772770173</v>
+        <v>2.281535648109533e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.197141243025763e-07</v>
+        <v>0.05143349739905961</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.281535648109533e-06</v>
+        <v>0.2097745901694335</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.05143349739905961</v>
+        <v>0.04665109284595811</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2097745901694335</v>
+        <v>1.509056188529871</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04665109284595811</v>
+        <v>1.420607870975822</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.428080210688571</v>
+        <v>4.10664916746817</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.420607870975822</v>
+        <v>1.26025491567573e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.10664916746817</v>
+        <v>14599667.29739556</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.26025491567573e-14</v>
+        <v>6.655916130422642e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>14599667.29739556</v>
+        <v>2.686236946942306</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.655916130422642e-06</v>
+        <v>0.0001458729207222566</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2.686236946942306</v>
+        <v>9.115720553802884</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001458729207222566</v>
+        <v>1.194438902982546</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.115720553802884</v>
+        <v>0.01212150891182725</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.194438902982546</v>
+        <v>2.725178132227994</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01212150891182725</v>
+        <v>0.933613980263039</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.725178132227994</v>
+        <v>1.910667981351115</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.933613980263039</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.910667981351115</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1692192918102211</v>
       </c>
     </row>
@@ -8705,72 +8561,66 @@
         <v>8.250663255355412e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.690124977473081</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.15679925782181</v>
+        <v>2.285448110153963e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.04695219157595939</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.285448110153963e-06</v>
+        <v>0.1945541230628492</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04695219157595939</v>
+        <v>0.04005589275885768</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1945541230628492</v>
+        <v>1.506992182158171</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04005589275885768</v>
+        <v>1.413955750952079</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.427090855171063</v>
+        <v>4.102296123399359</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.413955750952079</v>
+        <v>1.262930907683268e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.102296123399359</v>
+        <v>14697759.37897705</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.262930907683268e-14</v>
+        <v>6.621447770953637e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>14697759.37897705</v>
+        <v>2.728235515451303</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.621447770953637e-06</v>
+        <v>0.0001440382892756694</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2.728235515451303</v>
+        <v>7.629519585791159</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001440382892756694</v>
+        <v>1.46623118588698</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.629519585791159</v>
+        <v>0.008384406754074055</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.46623118588698</v>
+        <v>2.952795335376797</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008384406754074055</v>
+        <v>0.9342070384967908</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.952795335376797</v>
+        <v>1.896198233276963</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9342070384967908</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.896198233276963</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1589847984911905</v>
       </c>
     </row>
@@ -8785,72 +8635,66 @@
         <v>8.788323356323589e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.592372463136875</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.590566675022991</v>
+        <v>2.289273686773808e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.0430201530201067</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.289273686773808e-06</v>
+        <v>0.1828918746930989</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0430201530201067</v>
+        <v>0.03530028454764629</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1828918746930989</v>
+        <v>1.505163671481422</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03530028454764629</v>
+        <v>1.401569251995139</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.426619676224948</v>
+        <v>4.11245055928825</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.401569251995139</v>
+        <v>1.256701766275732e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.11245055928825</v>
+        <v>14789540.44887727</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.256701766275732e-14</v>
+        <v>6.588643686370921e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>14789540.44887727</v>
+        <v>2.748790140944229</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.588643686370921e-06</v>
+        <v>0.000151817897314493</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2.748790140944229</v>
+        <v>7.84842971694247</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000151817897314493</v>
+        <v>1.640030578710555</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.84842971694247</v>
+        <v>0.009351655917583098</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.640030578710555</v>
+        <v>2.974887637653091</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.009351655917583098</v>
+        <v>0.9334311780354416</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.974887637653091</v>
+        <v>1.898730892478191</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9334311780354416</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.898730892478191</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1527206548190312</v>
       </c>
     </row>
@@ -8865,72 +8709,66 @@
         <v>9.262325018347918e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.488749926067435</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.086617274761839</v>
+        <v>2.293026958090364e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.04026966433971352</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.293026958090364e-06</v>
+        <v>0.1738003423301633</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04026966433971352</v>
+        <v>0.03182754254001242</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1738003423301633</v>
+        <v>1.5140820187668</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03182754254001242</v>
+        <v>1.419943112905399</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.433834216499136</v>
+        <v>4.116545213861214</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.419943112905399</v>
+        <v>1.254202971694851e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.116545213861214</v>
+        <v>15291276.44049545</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.254202971694851e-14</v>
+        <v>6.491709624146998e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>15291276.44049545</v>
+        <v>2.932616709933253</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>6.491709624146998e-06</v>
+        <v>0.0001446568149932717</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2.932616709933253</v>
+        <v>9.236130957574145</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001446568149932717</v>
+        <v>1.179958236567175</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.236130957574145</v>
+        <v>0.01234011090481892</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.179958236567175</v>
+        <v>2.809072314037495</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01234011090481892</v>
+        <v>0.9346243576582887</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.809072314037495</v>
+        <v>1.903658734627646</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9346243576582887</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.903658734627646</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1637854744702979</v>
       </c>
     </row>
@@ -8945,72 +8783,66 @@
         <v>9.666489069079019e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.381110960753406</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6417229219984257</v>
+        <v>2.296745379797681e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.03836260298970449</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.296745379797681e-06</v>
+        <v>0.1667166958005227</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03836260298970449</v>
+        <v>0.02926443681101836</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1667166958005227</v>
+        <v>1.514912476039384</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02926443681101836</v>
+        <v>1.422711278912356</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.432995181067928</v>
+        <v>4.128756887306922</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.422711278912356</v>
+        <v>1.246794801387369e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.128756887306922</v>
+        <v>16034861.92210922</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.246794801387369e-14</v>
+        <v>6.302236582119772e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16034861.92210922</v>
+        <v>3.205718856758021</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.302236582119772e-06</v>
+        <v>0.0001480092696884018</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.205718856758021</v>
+        <v>9.715814450796792</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001480092696884018</v>
+        <v>1.169996295652384</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.715814450796792</v>
+        <v>0.01397163849670579</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.169996295652384</v>
+        <v>2.647714263808014</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01397163849670579</v>
+        <v>0.9367596864741847</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.647714263808014</v>
+        <v>1.895378754157844</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9367596864741847</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.895378754157844</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1704336465330114</v>
       </c>
     </row>
@@ -9025,72 +8857,66 @@
         <v>9.997614203283467e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.272597459414029</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.2578127214330577</v>
+        <v>2.300456276632e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.03713603815329057</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.300456276632e-06</v>
+        <v>0.1611500951367504</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.03713603815329057</v>
+        <v>0.02734653758035924</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1611500951367504</v>
+        <v>1.519967460572566</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02734653758035924</v>
+        <v>1.401523813787354</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.438033939338483</v>
+        <v>4.175065105043519</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.401523813787354</v>
+        <v>1.219290249366526e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.175065105043519</v>
+        <v>16569636.38440622</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.219290249366526e-14</v>
+        <v>6.158492493108915e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>16569636.38440622</v>
+        <v>3.347596128328082</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.158492493108915e-06</v>
+        <v>0.0001425312125365639</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3.347596128328082</v>
+        <v>8.894999400868832</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001425312125365639</v>
+        <v>1.198973611033749</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.894999400868832</v>
+        <v>0.01127721411121071</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.198973611033749</v>
+        <v>2.775133231479693</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01127721411121071</v>
+        <v>0.9367038475314238</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.775133231479693</v>
+        <v>1.877578790635457</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9367038475314238</v>
+        <v>14</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.877578790635457</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1717849142113902</v>
       </c>
     </row>
@@ -9105,72 +8931,66 @@
         <v>1.026076510862349e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.167191045004938</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.06439491114308238</v>
+        <v>2.304181613503546e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.0364238138419239</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.304181613503546e-06</v>
+        <v>0.1567797644419754</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.0364238138419239</v>
+        <v>0.02590507156406241</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1567797644419754</v>
+        <v>1.533659434223671</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02590507156406241</v>
+        <v>1.387815065630178</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.452384828500669</v>
+        <v>4.26851138973236</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.387815065630178</v>
+        <v>1.166489183090789e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.26851138973236</v>
+        <v>17726020.6638727</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.166489183090789e-14</v>
+        <v>5.82964729822058e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>17726020.6638727</v>
+        <v>3.665246759033467</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.82964729822058e-06</v>
+        <v>0.0001356774116930603</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>3.665246759033467</v>
+        <v>7.648223715822865</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001356774116930603</v>
+        <v>1.298969581811395</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.648223715822865</v>
+        <v>0.007936494428808869</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.298969581811395</v>
+        <v>2.947668648708318</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.007936494428808869</v>
+        <v>0.9379561524405168</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.947668648708318</v>
+        <v>1.888572161398542</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9379561524405168</v>
+        <v>14</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.888572161398542</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1714835897684855</v>
       </c>
     </row>
@@ -9185,72 +9005,66 @@
         <v>1.046435742586636e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.067517909645507</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.3302740519104734</v>
+        <v>2.307937784506548e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.03601185371376393</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.307937784506548e-06</v>
+        <v>0.153455828057957</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.03601185371376393</v>
+        <v>0.02484442478823536</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.153455828057957</v>
+        <v>1.540933883440779</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02484442478823536</v>
+        <v>1.362187749411046</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.461322282446664</v>
+        <v>4.511906718904696</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.362187749411046</v>
+        <v>1.044030967198018e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.511906718904696</v>
+        <v>19856765.82027418</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.044030967198018e-14</v>
+        <v>5.211187912814887e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>19856765.82027418</v>
+        <v>4.116521694823051</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.211187912814887e-06</v>
+        <v>0.0001362776711593541</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.116521694823051</v>
+        <v>6.915400049458209</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001362776711593541</v>
+        <v>1.896194704086448</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.915400049458209</v>
+        <v>0.006517174067404404</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.896194704086448</v>
+        <v>3.087431026290213</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006517174067404404</v>
+        <v>0.9403218947244184</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.087431026290213</v>
+        <v>1.887765586618497</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9403218947244184</v>
+        <v>14</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.887765586618497</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1746332754356111</v>
       </c>
     </row>
@@ -9265,72 +9079,66 @@
         <v>1.06151379551366e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.9748074010279167</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.5477565016643409</v>
+        <v>2.311714265800048e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.03558940827825775</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.311714265800048e-06</v>
+        <v>0.1512004932186103</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03558940827825775</v>
+        <v>0.02412755716607567</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1512004932186103</v>
+        <v>1.548536721229132</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02412755716607567</v>
+        <v>1.331094540541962</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.46773869190046</v>
+        <v>5.138822368365885</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.331094540541962</v>
+        <v>8.048341457137224e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.138822368365885</v>
+        <v>25382063.27648634</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8.048341457137224e-15</v>
+        <v>4.074223386721397e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>25382063.27648634</v>
+        <v>5.185137031374381</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.074223386721397e-06</v>
+        <v>0.0001245212208084965</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>5.185137031374381</v>
+        <v>8.292659880458027</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001245212208084965</v>
+        <v>1.428549924199445</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.292659880458027</v>
+        <v>0.00856310119964363</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.428549924199445</v>
+        <v>3.099809148767434</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.00856310119964363</v>
+        <v>0.9396242086553981</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.099809148767434</v>
+        <v>1.872257166574147</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9396242086553981</v>
+        <v>14</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.872257166574147</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2052482417212642</v>
       </c>
     </row>
@@ -9345,72 +9153,66 @@
         <v>1.072175896128391e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.8890876878607289</v>
+        <v>3.199739020833513e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7259186251267322</v>
+        <v>2.315495405790152e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.199739020833513e-07</v>
+        <v>0.03529886396461943</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.315495405790152e-06</v>
+        <v>0.1496582306287153</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03529886396461943</v>
+        <v>0.02364346625978123</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1496582306287153</v>
+        <v>1.597475864581141</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02364346625978123</v>
+        <v>1.398796004366608</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.51879851194428</v>
+        <v>4.685188180577413</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.398796004366608</v>
+        <v>5.561546954827258e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.685188180577413</v>
+        <v>36653219.10741893</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.561546954827258e-15</v>
+        <v>2.884826111495038e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>36653219.10741893</v>
+        <v>7.471707367973554</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.884826111495038e-06</v>
+        <v>0.000143267317670978</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>7.471707367973554</v>
+        <v>12.06513159003876</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000143267317670978</v>
+        <v>1.140095336485305</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>12.06513159003876</v>
+        <v>0.0208550509791625</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.140095336485305</v>
+        <v>2.973697464247608</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0208550509791625</v>
+        <v>0.944559461490399</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.973697464247608</v>
+        <v>1.875563534913473</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.944559461490399</v>
+        <v>14</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.875563534913473</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2233419795459406</v>
       </c>
     </row>
@@ -9787,7 +9589,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.377351204245578</v>
+        <v>1.385800158451088</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.095642837710805</v>
@@ -9876,7 +9678,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.404658918350642</v>
+        <v>1.416761250209494</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.084119885023419</v>
@@ -9965,7 +9767,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.390463706316254</v>
+        <v>1.396990397347301</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.916269247881101</v>
@@ -10054,7 +9856,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.398241028233873</v>
+        <v>1.405747871626361</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.009393628011841</v>
@@ -10143,7 +9945,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.368098086306258</v>
+        <v>1.375266545057978</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.036919575448867</v>
@@ -10232,7 +10034,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.394046700349502</v>
+        <v>1.404677194059592</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.004399529543788</v>
@@ -10321,7 +10123,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393436484695221</v>
+        <v>1.391145794846296</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.078126636216453</v>
@@ -10410,7 +10212,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.396287305487573</v>
+        <v>1.394689650301355</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.057678672532433</v>
@@ -10499,7 +10301,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.348695868981245</v>
+        <v>1.362972666346208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.076300985907214</v>
@@ -10588,7 +10390,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.31698364352202</v>
+        <v>1.329413755398095</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.023142327157908</v>
@@ -10677,7 +10479,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.318669009109171</v>
+        <v>1.332342392026518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.980851597765636</v>
@@ -10766,7 +10568,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.32050713591982</v>
+        <v>1.333025205159308</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.952573889656527</v>
@@ -10855,7 +10657,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.325744912958047</v>
+        <v>1.338865313594377</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.892064522814997</v>
@@ -10944,7 +10746,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.346692741011397</v>
+        <v>1.362440517458836</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.945846423110748</v>
@@ -11033,7 +10835,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.337945711325933</v>
+        <v>1.350050963488238</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.968611230937383</v>
@@ -11122,7 +10924,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.34795582159957</v>
+        <v>1.362651139929788</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.971018015093617</v>
@@ -11211,7 +11013,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.346163477632114</v>
+        <v>1.353131003488778</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.979176965675297</v>
@@ -11300,7 +11102,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.330190732155066</v>
+        <v>1.345092827067022</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.930175661160844</v>
@@ -11389,7 +11191,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.328294279660835</v>
+        <v>1.343221824586783</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.975627044333005</v>
@@ -11478,7 +11280,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.360563016308672</v>
+        <v>1.377323772743888</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.892260933852078</v>
@@ -11567,7 +11369,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.339785345635269</v>
+        <v>1.354888170559574</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.967010523739143</v>
@@ -11656,7 +11458,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.354778849291417</v>
+        <v>1.362525632961905</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.837652870698791</v>
@@ -11745,7 +11547,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.392021247841051</v>
+        <v>1.401347941982719</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.860580102994885</v>
@@ -11834,7 +11636,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.437831829341619</v>
+        <v>1.436354770863235</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.873178285066736</v>
@@ -11923,7 +11725,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443890322285763</v>
+        <v>1.449478793444141</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.019547914226452</v>
@@ -12012,7 +11814,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.413004418902298</v>
+        <v>1.420675945076132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.987213628141819</v>
@@ -12101,7 +11903,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403215069155626</v>
+        <v>1.410451410209634</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.004506849623623</v>
@@ -12190,7 +11992,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.435655021949606</v>
+        <v>1.44688929553736</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.726409153684122</v>
@@ -12279,7 +12081,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.37981693593031</v>
+        <v>1.387971960568084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.663850727901495</v>
@@ -12368,7 +12170,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.328210843795764</v>
+        <v>1.346602010374697</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.679822485734944</v>
@@ -12457,7 +12259,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.3287739054345</v>
+        <v>1.348455047356593</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.71432687507034</v>
@@ -12546,7 +12348,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.343121655817168</v>
+        <v>1.365333119112041</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.702421662565788</v>
@@ -12635,7 +12437,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.346556386423163</v>
+        <v>1.369380432750193</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.71336198869819</v>
@@ -12724,7 +12526,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.337618998319087</v>
+        <v>1.359216160601175</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.720687109541827</v>
@@ -12813,7 +12615,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337100642372084</v>
+        <v>1.358528168587168</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.728437898427078</v>
@@ -12902,7 +12704,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.335848277287238</v>
+        <v>1.355557586609158</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.721407560669967</v>
@@ -12991,7 +12793,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.349365754851954</v>
+        <v>1.371188498911081</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.733087718924339</v>
@@ -13080,7 +12882,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.352829987128233</v>
+        <v>1.374767511110163</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.717955890964958</v>
@@ -13169,7 +12971,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.364814160712507</v>
+        <v>1.38745145450344</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.662930979964361</v>
@@ -13258,7 +13060,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.362629110953679</v>
+        <v>1.387708340542326</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.741619739208702</v>
@@ -13347,7 +13149,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.375754510802421</v>
+        <v>1.400404630502093</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.713394340779032</v>
@@ -13436,7 +13238,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372805982707103</v>
+        <v>1.396709112235953</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.732867348762275</v>
@@ -13525,7 +13327,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.348134292524932</v>
+        <v>1.364896247758623</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.656762933561519</v>
@@ -13614,7 +13416,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.429381157972563</v>
+        <v>1.438692601785551</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.702738435850041</v>
@@ -13703,7 +13505,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474109898060271</v>
+        <v>1.487291947868825</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.038537346689393</v>
@@ -13792,7 +13594,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464534903242269</v>
+        <v>1.474962576504699</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.022746238243005</v>
@@ -13881,7 +13683,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.417263871120593</v>
+        <v>1.428597540284089</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.128549253653823</v>
@@ -13970,7 +13772,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.413052911696497</v>
+        <v>1.423216435995278</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.180142171234852</v>
@@ -14059,7 +13861,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.397255151694591</v>
+        <v>1.413502068276589</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.115400256415981</v>
@@ -14148,7 +13950,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.401235989654935</v>
+        <v>1.419265940050445</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.141002690369162</v>
@@ -14237,7 +14039,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.421847854541512</v>
+        <v>1.442643598782159</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.133284339887808</v>
@@ -14326,7 +14128,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.395442077804969</v>
+        <v>1.41736129542195</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.129910133104554</v>
@@ -14415,7 +14217,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.397848074942019</v>
+        <v>1.417692386278757</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.160963659076684</v>
@@ -14504,7 +14306,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.409375343169812</v>
+        <v>1.426890624602454</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.020523077820656</v>
@@ -14593,7 +14395,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.414182678472283</v>
+        <v>1.431298053725617</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.127123321443271</v>
@@ -14682,7 +14484,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.424642376068932</v>
+        <v>1.442985007859502</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.210476687556015</v>
@@ -14771,7 +14573,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.39738739925309</v>
+        <v>1.417822204972024</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.04461323034356</v>
@@ -14860,7 +14662,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.41526298724747</v>
+        <v>1.411660380318922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.634427037169802</v>
@@ -14949,7 +14751,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.284937003713262</v>
+        <v>1.29578866249403</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.666464781666777</v>
@@ -15038,7 +14840,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.279247671243078</v>
+        <v>1.291885634751125</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.637688121685204</v>
@@ -15127,7 +14929,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.288853023989279</v>
+        <v>1.297213856498789</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.675810871887933</v>
@@ -15216,7 +15018,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.321234241223194</v>
+        <v>1.330281296040749</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.661959674944807</v>
@@ -15305,7 +15107,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.335125622996427</v>
+        <v>1.343277368171843</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.644222479544881</v>
@@ -15394,7 +15196,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.36526790001839</v>
+        <v>1.370048292596341</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.655427833015972</v>
@@ -15483,7 +15285,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.365248556319486</v>
+        <v>1.368194554191353</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.663253346745394</v>
@@ -15572,7 +15374,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.361014264836067</v>
+        <v>1.361881636464034</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.654342123914378</v>
@@ -15661,7 +15463,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.379932709680923</v>
+        <v>1.380808901183436</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.655269613671574</v>
@@ -15750,7 +15552,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.384785295002279</v>
+        <v>1.384708889429216</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.671839597869177</v>
@@ -15839,7 +15641,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.362546881574957</v>
+        <v>1.364091321320853</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.688007581037523</v>
@@ -15928,7 +15730,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.365581754462195</v>
+        <v>1.366128796687458</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.687108756695353</v>
@@ -16017,7 +15819,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.370802963343844</v>
+        <v>1.370018232156291</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.706196607444818</v>
@@ -16106,7 +15908,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.401292764510504</v>
+        <v>1.397702276909875</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.672895570394592</v>
@@ -16195,7 +15997,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.523852891159951</v>
+        <v>1.516942464307753</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.628853341705462</v>
@@ -16284,7 +16086,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.662900397114262</v>
+        <v>1.6407355304682</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.152472964452155</v>
@@ -16373,7 +16175,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.697943984150224</v>
+        <v>1.669126142478362</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.177598368123002</v>
@@ -16462,7 +16264,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.696042510172455</v>
+        <v>1.667825333869525</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.110782052272048</v>
@@ -16748,7 +16550,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.435534692921929</v>
+        <v>1.439641689086798</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.131644367794792</v>
@@ -16837,7 +16639,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438371008394167</v>
+        <v>1.45112337987321</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.114046560599945</v>
@@ -16926,7 +16728,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.418858254652554</v>
+        <v>1.426448086161979</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.272238628088428</v>
@@ -17015,7 +16817,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.393218068808923</v>
+        <v>1.405848475104107</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.161189063535486</v>
@@ -17104,7 +16906,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.358242159576669</v>
+        <v>1.371682740867078</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.152378294285317</v>
@@ -17193,7 +16995,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379529557093042</v>
+        <v>1.399383174034821</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.132064929310751</v>
@@ -17282,7 +17084,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.356908897331496</v>
+        <v>1.369079178897703</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.203623687937814</v>
@@ -17371,7 +17173,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.328919224010702</v>
+        <v>1.340990325503313</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.05604251943532</v>
@@ -17460,7 +17262,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.303791383574781</v>
+        <v>1.318815908144428</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.241044785621032</v>
@@ -17549,7 +17351,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.285906484544719</v>
+        <v>1.299582963713817</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.229037456326527</v>
@@ -17638,7 +17440,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.290883806233202</v>
+        <v>1.304258813245877</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.188814620917562</v>
@@ -17727,7 +17529,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.301043132617257</v>
+        <v>1.317580942413699</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.297252815470793</v>
@@ -17816,7 +17618,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299606874204413</v>
+        <v>1.312754525133501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.114266103313229</v>
@@ -17905,7 +17707,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.313726629929284</v>
+        <v>1.327600349150526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.204143322577052</v>
@@ -17994,7 +17796,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.301822458035963</v>
+        <v>1.314091416671594</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.231206821200129</v>
@@ -18083,7 +17885,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.31625282712554</v>
+        <v>1.331725757264694</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.066924468323055</v>
@@ -18172,7 +17974,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.311875846947179</v>
+        <v>1.321412860951104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.150397951957754</v>
@@ -18261,7 +18063,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.318475556375756</v>
+        <v>1.334455841774025</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.1867090747271</v>
@@ -18350,7 +18152,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.351253128196966</v>
+        <v>1.361905001523871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.168893523536446</v>
@@ -18439,7 +18241,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.379491714785438</v>
+        <v>1.391820676266418</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.156372839347924</v>
@@ -18528,7 +18330,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.364221151158183</v>
+        <v>1.367991606453006</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.179222564556934</v>
@@ -18617,7 +18419,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.374646285726594</v>
+        <v>1.375505875943979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.901198271022784</v>
@@ -18706,7 +18508,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.404832602465359</v>
+        <v>1.407638118275154</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.903297164751405</v>
@@ -18795,7 +18597,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.412889446399274</v>
+        <v>1.427210374386784</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.06941092959709</v>
@@ -18884,7 +18686,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.425772953915186</v>
+        <v>1.447783610856338</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.252255428104446</v>
@@ -18973,7 +18775,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.390098297724808</v>
+        <v>1.408084074792701</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.192958418154818</v>
@@ -19062,7 +18864,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.388116857997307</v>
+        <v>1.409005644265688</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.198495204450366</v>
@@ -19151,7 +18953,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.388291048154215</v>
+        <v>1.396240159084398</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.034992851160243</v>
@@ -19240,7 +19042,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.353729929839076</v>
+        <v>1.362883319402691</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.034302790430684</v>
@@ -19329,7 +19131,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.315684676546035</v>
+        <v>1.327065243079478</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.962095476461559</v>
@@ -19418,7 +19220,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.302544780633984</v>
+        <v>1.31235006862756</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.993595802843365</v>
@@ -19507,7 +19309,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.322207487037215</v>
+        <v>1.334698720311302</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.018513855230943</v>
@@ -19596,7 +19398,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.317493931494846</v>
+        <v>1.329486236131789</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.024120058604022</v>
@@ -19685,7 +19487,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.315907353193196</v>
+        <v>1.327103261194302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.014996943878365</v>
@@ -19774,7 +19576,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.322357332835474</v>
+        <v>1.333438108757352</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.989260555496777</v>
@@ -19863,7 +19665,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.333237171733697</v>
+        <v>1.340708456793248</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.81737786796106</v>
@@ -19952,7 +19754,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.346997217181575</v>
+        <v>1.356510873916638</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.919334088104213</v>
@@ -20041,7 +19843,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.346646342938657</v>
+        <v>1.356125687693038</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.020728093762526</v>
@@ -20130,7 +19932,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.34271234338301</v>
+        <v>1.347822170024067</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.02420676392878</v>
@@ -20219,7 +20021,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.320570614743083</v>
+        <v>1.330284074452382</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.946487000560842</v>
@@ -20308,7 +20110,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.34877606922303</v>
+        <v>1.362260377987715</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.017926067110715</v>
@@ -20397,7 +20199,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.341496534220469</v>
+        <v>1.353059879526048</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.989372689309163</v>
@@ -20486,7 +20288,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.339177131269226</v>
+        <v>1.352535461027571</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.90538661560665</v>
@@ -20575,7 +20377,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.375713526736206</v>
+        <v>1.393642766064381</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.957878590606201</v>
@@ -20664,7 +20466,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.407335085526394</v>
+        <v>1.429833932756883</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.02621333366019</v>
@@ -20753,7 +20555,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.403596092366405</v>
+        <v>1.429501711540164</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.200199150995819</v>
@@ -20842,7 +20644,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.367696786734841</v>
+        <v>1.392775981901639</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.168678710077193</v>
@@ -20931,7 +20733,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370127628870491</v>
+        <v>1.396529502517579</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.195456560890142</v>
@@ -21020,7 +20822,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.340970986062554</v>
+        <v>1.369076195207738</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.215233329418834</v>
@@ -21109,7 +20911,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.333468944580484</v>
+        <v>1.360575544258184</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.199389462674801</v>
@@ -21198,7 +21000,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.345802450801232</v>
+        <v>1.373692758982988</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.214397585551498</v>
@@ -21287,7 +21089,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.325487744948353</v>
+        <v>1.349740489955326</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.23110360522245</v>
@@ -21376,7 +21178,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.325223943190093</v>
+        <v>1.34864195470039</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.160932337989459</v>
@@ -21465,7 +21267,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.351005558135189</v>
+        <v>1.372389037163188</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.891731037223012</v>
@@ -21554,7 +21356,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.376097437045103</v>
+        <v>1.394281860831042</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.127881932116449</v>
@@ -21643,7 +21445,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.37304981706316</v>
+        <v>1.385501640872415</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.993447665613597</v>
@@ -21732,7 +21534,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.38124766816397</v>
+        <v>1.392341711303688</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.977162471779803</v>
@@ -21821,7 +21623,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.402892614514645</v>
+        <v>1.414831497795044</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.060237322045521</v>
@@ -21910,7 +21712,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.344677442523411</v>
+        <v>1.341282594649853</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.882505605840112</v>
@@ -21999,7 +21801,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.287179622793609</v>
+        <v>1.283834410800776</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.665507103475478</v>
@@ -22088,7 +21890,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.29705217217134</v>
+        <v>1.288296203926161</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.710081798248101</v>
@@ -22177,7 +21979,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.308724459928593</v>
+        <v>1.301827856111684</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.690440342927161</v>
@@ -22266,7 +22068,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.312618536014413</v>
+        <v>1.304822113863922</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.660992767602767</v>
@@ -22355,7 +22157,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.338670499308454</v>
+        <v>1.329297686335365</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.662229002270884</v>
@@ -22444,7 +22246,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.334993458217592</v>
+        <v>1.324934615906894</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.66710336174524</v>
@@ -22533,7 +22335,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.330164116922681</v>
+        <v>1.320015042237806</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.646286635738991</v>
@@ -22622,7 +22424,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.349980596312819</v>
+        <v>1.341157526280007</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.637022658164407</v>
@@ -22711,7 +22513,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.357670524210926</v>
+        <v>1.351151998838692</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.661550414985559</v>
@@ -22800,7 +22602,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.332907526207106</v>
+        <v>1.32558756387408</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.678394050893229</v>
@@ -22889,7 +22691,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.333839505874124</v>
+        <v>1.326273213731459</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.663002491224395</v>
@@ -22978,7 +22780,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.334712118144889</v>
+        <v>1.329841245555787</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.666477309519311</v>
@@ -23067,7 +22869,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.329904649823666</v>
+        <v>1.32814904355585</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.669558813610033</v>
@@ -23156,7 +22958,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.341418745421647</v>
+        <v>1.342295049023252</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.693430773268259</v>
@@ -23245,7 +23047,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.400366781944419</v>
+        <v>1.399222042857496</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.714227476206473</v>
@@ -23334,7 +23136,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.51215561446382</v>
+        <v>1.518937834132724</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.153168579070789</v>
@@ -23423,7 +23225,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.513492481528742</v>
+        <v>1.520497563424248</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.765746496221938</v>
@@ -23709,7 +23511,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.623251467384227</v>
+        <v>1.624823018865507</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.683353201789855</v>
@@ -23798,7 +23600,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.643291105910306</v>
+        <v>1.640240849983092</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.715725612876974</v>
@@ -23887,7 +23689,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.602339080034905</v>
+        <v>1.59046524173137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.036788284144516</v>
@@ -23976,7 +23778,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611507127437927</v>
+        <v>1.595420577854907</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.07574729453243</v>
@@ -24065,7 +23867,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619670485865197</v>
+        <v>1.602994645328353</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.873002047791745</v>
@@ -24154,7 +23956,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622994743821846</v>
+        <v>1.605288143908731</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.90595833168739</v>
@@ -24243,7 +24045,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.622343777956061</v>
+        <v>1.598002200043481</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.097871514228264</v>
@@ -24332,7 +24134,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.60278235521656</v>
+        <v>1.580741429620233</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.728557791016902</v>
@@ -24421,7 +24223,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582203990883712</v>
+        <v>1.56382009154826</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.898171029985253</v>
@@ -24510,7 +24312,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.579530801594283</v>
+        <v>1.558104447266026</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.929649043055083</v>
@@ -24599,7 +24401,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.582830180639186</v>
+        <v>1.555837137414513</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.830352270219967</v>
@@ -24688,7 +24490,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571837081389688</v>
+        <v>1.545049691255254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.586639001115629</v>
@@ -24777,7 +24579,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.567524766728835</v>
+        <v>1.539254312742566</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.572942854328122</v>
@@ -24866,7 +24668,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566961331658316</v>
+        <v>1.536105014147775</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.670236462584016</v>
@@ -24955,7 +24757,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567978637450388</v>
+        <v>1.537489375824096</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.890894726129</v>
@@ -25044,7 +24846,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573153307100204</v>
+        <v>1.547381603465435</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.929815616258573</v>
@@ -25133,7 +24935,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.562115755312174</v>
+        <v>1.532038916003878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.653792263840622</v>
@@ -25222,7 +25024,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565536567493618</v>
+        <v>1.536643356467229</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.545961994534002</v>
@@ -25311,7 +25113,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.561467338687752</v>
+        <v>1.534819309689413</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.675785550362906</v>
@@ -25400,7 +25202,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575929634564856</v>
+        <v>1.548316132126608</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.789288162540746</v>
@@ -25489,7 +25291,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579877130268837</v>
+        <v>1.551921774277071</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.676168674052901</v>
@@ -25578,7 +25380,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564121133586457</v>
+        <v>1.538598707847145</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.621364340643527</v>
@@ -25667,7 +25469,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584987276108387</v>
+        <v>1.554866865819067</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.705731026763588</v>
@@ -25756,7 +25558,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596709451390749</v>
+        <v>1.568737534461419</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.073181333337905</v>
@@ -25845,7 +25647,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.58216472904479</v>
+        <v>1.557797911941152</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.782080510593341</v>
@@ -25934,7 +25736,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.573806187044983</v>
+        <v>1.551038116925165</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.978304058840537</v>
@@ -26023,7 +25825,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.57585061708655</v>
+        <v>1.551653572569581</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.993440983319954</v>
@@ -26112,7 +25914,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.548823424479485</v>
+        <v>1.534646987811077</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.156411674074322</v>
@@ -26201,7 +26003,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567725340357708</v>
+        <v>1.541624281889296</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.208442097056285</v>
@@ -26290,7 +26092,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548548908316651</v>
+        <v>1.5263966503528</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.259312043032574</v>
@@ -26379,7 +26181,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55259528295425</v>
+        <v>1.532667528878488</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.215893044656505</v>
@@ -26468,7 +26270,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550729132982371</v>
+        <v>1.52860785027475</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.330679085888789</v>
@@ -26557,7 +26359,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.544330774349508</v>
+        <v>1.522781057837083</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.285849154371968</v>
@@ -26646,7 +26448,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.533751378615398</v>
+        <v>1.512803997581821</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.314871603652515</v>
@@ -26735,7 +26537,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532447260910342</v>
+        <v>1.510213357341892</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.27446594982547</v>
@@ -26824,7 +26626,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524064774669982</v>
+        <v>1.498114181315469</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.273833249196101</v>
@@ -26913,7 +26715,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.535433221986577</v>
+        <v>1.50782591915006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.192895439611191</v>
@@ -27002,7 +26804,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537728845715086</v>
+        <v>1.511965047335973</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.233040136013617</v>
@@ -27091,7 +26893,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554476607653379</v>
+        <v>1.524896908463804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.156730328064162</v>
@@ -27180,7 +26982,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556487195058449</v>
+        <v>1.530228839322187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.283112550952496</v>
@@ -27269,7 +27071,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564200165773215</v>
+        <v>1.538996384894412</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.27559961935482</v>
@@ -27358,7 +27160,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563149885285716</v>
+        <v>1.541855886253795</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.284598800269715</v>
@@ -27447,7 +27249,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582028517730924</v>
+        <v>1.556415396586198</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.061353530369041</v>
@@ -27536,7 +27338,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593105421193628</v>
+        <v>1.561755974253784</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.255672961876647</v>
@@ -27625,7 +27427,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603878869835152</v>
+        <v>1.576051589311354</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.193004807270359</v>
@@ -27714,7 +27516,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604046221300979</v>
+        <v>1.570429248102769</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.847449028764973</v>
@@ -27803,7 +27605,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597442119682762</v>
+        <v>1.564769519863276</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.947956376133392</v>
@@ -27892,7 +27694,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.602573890437408</v>
+        <v>1.571690948553368</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.003531726312109</v>
@@ -27981,7 +27783,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624336255735584</v>
+        <v>1.592350044634995</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.777837042596771</v>
@@ -28070,7 +27872,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.629215201831905</v>
+        <v>1.593782573727406</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.871664240512167</v>
@@ -28159,7 +27961,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636568749120688</v>
+        <v>1.598723232305735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.755061021534801</v>
@@ -28248,7 +28050,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.543700965317137</v>
+        <v>1.520260849607453</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.935264517734389</v>
@@ -28337,7 +28139,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.528032998901926</v>
+        <v>1.501134169963793</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.922903641141721</v>
@@ -28426,7 +28228,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.52548655726957</v>
+        <v>1.496474695355117</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.910524209770154</v>
@@ -28515,7 +28317,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.528400689197734</v>
+        <v>1.494490545210086</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.872378658403052</v>
@@ -28604,7 +28406,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.517312843415435</v>
+        <v>1.485592821556157</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.855236296225709</v>
@@ -28693,7 +28495,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.507929425803394</v>
+        <v>1.481429613286737</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.888332955452387</v>
@@ -28782,7 +28584,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.508820541467908</v>
+        <v>1.478825048406874</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.908189327374359</v>
@@ -28871,7 +28673,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.477652913143081</v>
+        <v>1.460764512242678</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.888439819549783</v>
@@ -28960,7 +28762,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.468014982653446</v>
+        <v>1.45070284250903</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.920166041667524</v>
@@ -29049,7 +28851,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.477115607705471</v>
+        <v>1.459349626808725</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.885759690870667</v>
@@ -29138,7 +28940,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.48368400084208</v>
+        <v>1.468778157015764</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.903442278358911</v>
@@ -29227,7 +29029,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.487274681051411</v>
+        <v>1.474336878247706</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.906761132508694</v>
@@ -29316,7 +29118,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.484894381402168</v>
+        <v>1.470980542467112</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.89896349121316</v>
@@ -29405,7 +29207,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.475226103978262</v>
+        <v>1.463503317947911</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.88911074409001</v>
@@ -29494,7 +29296,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474894940288455</v>
+        <v>1.469135798703827</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.972707392948343</v>
@@ -29583,7 +29385,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.539812200204649</v>
+        <v>1.533064139265457</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.560706610520727</v>
@@ -29672,7 +29474,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.55063380963078</v>
+        <v>1.548453748907993</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.826483583289028</v>
@@ -29761,7 +29563,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.531940064137673</v>
+        <v>1.532346848506182</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.724282046407242</v>
@@ -29850,7 +29652,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.531233015173178</v>
+        <v>1.531113517282688</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.598885966345206</v>
@@ -29939,7 +29741,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.529985153697089</v>
+        <v>1.530091630652936</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.663310035124434</v>
@@ -30028,7 +29830,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.532271630260306</v>
+        <v>1.525540591268803</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.653042126714194</v>
@@ -30117,7 +29919,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.563305671203532</v>
+        <v>1.554159561412813</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.255015719913284</v>
@@ -30206,7 +30008,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.572914544882895</v>
+        <v>1.561654380880574</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.909537532069492</v>
@@ -30295,7 +30097,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.593396263318875</v>
+        <v>1.583529670825954</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.056099276947181</v>
@@ -30384,7 +30186,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.58761094991142</v>
+        <v>1.580618136537559</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.781427199524841</v>
@@ -30670,7 +30472,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.68934909776269</v>
+        <v>1.694089433276289</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.100301755257572</v>
@@ -30759,7 +30561,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.685293883543342</v>
+        <v>1.690863462401768</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.113388356277301</v>
@@ -30848,7 +30650,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.548611923825384</v>
+        <v>1.521840084369006</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.995615498123206</v>
@@ -30937,7 +30739,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.547879688122653</v>
+        <v>1.519131507036612</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.004885078898193</v>
@@ -31026,7 +30828,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54846531571892</v>
+        <v>1.521840376014227</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.984276430346773</v>
@@ -31115,7 +30917,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540377412307272</v>
+        <v>1.517100081387154</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.971629788035064</v>
@@ -31204,7 +31006,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539598635241357</v>
+        <v>1.516792786993288</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.982737670814447</v>
@@ -31293,7 +31095,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.530548401820239</v>
+        <v>1.508484590768947</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.979443428269967</v>
@@ -31382,7 +31184,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531259937599282</v>
+        <v>1.510098125693268</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.991644518674715</v>
@@ -31471,7 +31273,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526869104891359</v>
+        <v>1.50320385594243</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.973829667629309</v>
@@ -31560,7 +31362,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.552740715341653</v>
+        <v>1.52439381639112</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.893517610650419</v>
@@ -31649,7 +31451,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.544981625189749</v>
+        <v>1.516769661402078</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.961653191633032</v>
@@ -31738,7 +31540,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.5482285487056</v>
+        <v>1.519651062023506</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.942999687638745</v>
@@ -31827,7 +31629,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.546003808521744</v>
+        <v>1.516212050664464</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.925971220292905</v>
@@ -31916,7 +31718,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.548687061868108</v>
+        <v>1.516995288870824</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.949164671579979</v>
@@ -32005,7 +31807,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.638287011362807</v>
+        <v>1.601234039195792</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.927183206736741</v>
@@ -32094,7 +31896,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635562330013062</v>
+        <v>1.599307449491101</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.196239796944238</v>
@@ -32183,7 +31985,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602135797082162</v>
+        <v>1.575908791463784</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.894039115330559</v>
@@ -32272,7 +32074,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614631757880256</v>
+        <v>1.590945170033113</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.889733674080286</v>
@@ -32361,7 +32163,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591801439638961</v>
+        <v>1.571771352420972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.891271238428334</v>
@@ -32450,7 +32252,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588911283219127</v>
+        <v>1.571769000459079</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.131695080534235</v>
@@ -32539,7 +32341,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.590888828822199</v>
+        <v>1.57334884058858</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.971296338831398</v>
@@ -32628,7 +32430,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591853990564912</v>
+        <v>1.571507390373833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.470685146107588</v>
@@ -32717,7 +32519,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570177835413405</v>
+        <v>1.564436809157448</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.399913855237336</v>
@@ -32806,7 +32608,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577438095937244</v>
+        <v>1.573891365895898</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.394838719992878</v>
@@ -32895,7 +32697,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581546029536181</v>
+        <v>1.577137868176842</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.48027325169326</v>
@@ -32984,7 +32786,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582644870757314</v>
+        <v>1.578765815490381</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.448736118592919</v>
@@ -33073,7 +32875,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585530184182759</v>
+        <v>1.575975041049192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.98688538720867</v>
@@ -33162,7 +32964,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.580771751320447</v>
+        <v>1.576846748729785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.899441665095151</v>
@@ -33251,7 +33053,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.553707941846646</v>
+        <v>1.557863319071167</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.907757482795345</v>
@@ -33340,7 +33142,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56388377125946</v>
+        <v>1.561819828523838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.955063370481539</v>
@@ -33429,7 +33231,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532634020793893</v>
+        <v>1.534280471951614</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.973569204914598</v>
@@ -33518,7 +33320,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546400811558395</v>
+        <v>1.546802301269494</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.946992745094144</v>
@@ -33607,7 +33409,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.547441954579036</v>
+        <v>1.545778266527518</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.95505280402357</v>
@@ -33696,7 +33498,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.559480368293313</v>
+        <v>1.554130505120997</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.935472738836447</v>
@@ -33785,7 +33587,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.558784229241659</v>
+        <v>1.551161717301516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.954448643614347</v>
@@ -33874,7 +33676,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558132957433323</v>
+        <v>1.54869645011342</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.953456904280858</v>
@@ -33963,7 +33765,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583015934387615</v>
+        <v>1.564636273926072</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.994280161940091</v>
@@ -34052,7 +33854,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.583402529049928</v>
+        <v>1.567073258885837</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.942292524379402</v>
@@ -34141,7 +33943,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586616741317614</v>
+        <v>1.568274733770942</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.927004247125447</v>
@@ -34230,7 +34032,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.5331197047107</v>
+        <v>1.52502234611729</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.901505394597118</v>
@@ -34319,7 +34121,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535992531272014</v>
+        <v>1.527661894919493</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.936949189573431</v>
@@ -34408,7 +34210,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.532040993800874</v>
+        <v>1.528518823128595</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.865847569033807</v>
@@ -34497,7 +34299,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55566281861764</v>
+        <v>1.533737025854228</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.037939911298047</v>
@@ -34586,7 +34388,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561273454718181</v>
+        <v>1.540051835595288</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.107076781482211</v>
@@ -34675,7 +34477,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.552587814638765</v>
+        <v>1.532095036073706</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.01908793703185</v>
@@ -34764,7 +34566,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599502525437677</v>
+        <v>1.57113033392176</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.10923273648202</v>
@@ -34853,7 +34655,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606790894725067</v>
+        <v>1.580375763586457</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.09813890207081</v>
@@ -34942,7 +34744,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620539461233979</v>
+        <v>1.595236055942813</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.148328886594593</v>
@@ -35031,7 +34833,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596001997250864</v>
+        <v>1.577734837535872</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.144812321322015</v>
@@ -35120,7 +34922,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.583367739126883</v>
+        <v>1.565299877827913</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.175781874691654</v>
@@ -35209,7 +35011,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.523797701055499</v>
+        <v>1.515871359306521</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.997821246474084</v>
@@ -35298,7 +35100,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.515228560673117</v>
+        <v>1.506537741009046</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.010452490430773</v>
@@ -35387,7 +35189,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.505686328474044</v>
+        <v>1.499271905049152</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.030476824722311</v>
@@ -35476,7 +35278,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.505526842093494</v>
+        <v>1.492193047891233</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.91723050095187</v>
@@ -35565,7 +35367,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.550568861106205</v>
+        <v>1.527555284842136</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.979228477847123</v>
@@ -35654,7 +35456,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.519792641501777</v>
+        <v>1.501591635252718</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.96671412534202</v>
@@ -35743,7 +35545,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.517290463113005</v>
+        <v>1.494560782680347</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.004629204575947</v>
@@ -35832,7 +35634,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.488639884456994</v>
+        <v>1.477452302741621</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.005712277008222</v>
@@ -35921,7 +35723,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.487189267409256</v>
+        <v>1.478351314511945</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.007986840819691</v>
@@ -36010,7 +35812,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.488068118170947</v>
+        <v>1.478630075872771</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.984117511836943</v>
@@ -36099,7 +35901,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.489672820053088</v>
+        <v>1.480311809039176</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.000059416332364</v>
@@ -36188,7 +35990,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.486839153128591</v>
+        <v>1.475816533217368</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.011116161322282</v>
@@ -36277,7 +36079,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.471766477538669</v>
+        <v>1.461554108026552</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.896380504092091</v>
@@ -36366,7 +36168,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.491477526197386</v>
+        <v>1.478470706567288</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.975253663884823</v>
@@ -36455,7 +36257,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.480328204205965</v>
+        <v>1.471785342990391</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.035423158674681</v>
@@ -36544,7 +36346,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.524106968572504</v>
+        <v>1.513706402453384</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.325628114998081</v>
@@ -36633,7 +36435,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.533676927605483</v>
+        <v>1.524789785637667</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.443249553776043</v>
@@ -36722,7 +36524,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.546124616171847</v>
+        <v>1.535403474752326</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.403679409196883</v>
@@ -36811,7 +36613,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.545905683139073</v>
+        <v>1.539204834850959</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.43830236492523</v>
@@ -36900,7 +36702,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.554175127488486</v>
+        <v>1.547688768259589</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.509461621250716</v>
@@ -36989,7 +36791,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.589942350070359</v>
+        <v>1.575547721955374</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.709417791331056</v>
@@ -37078,7 +36880,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.610248183143143</v>
+        <v>1.598547474009853</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.325398246548515</v>
@@ -37167,7 +36969,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.637592412663645</v>
+        <v>1.623465243175079</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.750721474369712</v>
@@ -37256,7 +37058,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.662506285866628</v>
+        <v>1.644297980403411</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.687577180906422</v>
@@ -37345,7 +37147,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.655290972942223</v>
+        <v>1.643107455342838</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.902661452579864</v>
@@ -37631,7 +37433,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.71292549519785</v>
+        <v>1.741038670099238</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.089741014407694</v>
@@ -37720,7 +37522,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.738869461796316</v>
+        <v>1.761303061136725</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.064350726849974</v>
@@ -37809,7 +37611,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.566603870376355</v>
+        <v>1.566824619930951</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.444732129450129</v>
@@ -37898,7 +37700,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.556696937770002</v>
+        <v>1.557022415420145</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.409587730658699</v>
@@ -37987,7 +37789,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.548559802568233</v>
+        <v>1.548009154727225</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.50108416302399</v>
@@ -38076,7 +37878,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536136647693168</v>
+        <v>1.532963951203818</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.618408231852142</v>
@@ -38165,7 +37967,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547768539723384</v>
+        <v>1.542318142345114</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.428822254691873</v>
@@ -38254,7 +38056,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561215394968181</v>
+        <v>1.564868085784956</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.987360138489542</v>
@@ -38343,7 +38145,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552571098152294</v>
+        <v>1.563037166601198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.385435496928618</v>
@@ -38432,7 +38234,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.553482431397199</v>
+        <v>1.56501611036697</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.44053675488694</v>
@@ -38521,7 +38323,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562512793234617</v>
+        <v>1.567870053562995</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.683907656343997</v>
@@ -38610,7 +38412,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.56519445257978</v>
+        <v>1.571990485462578</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.933359764259782</v>
@@ -38699,7 +38501,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.575762766236177</v>
+        <v>1.578648524059757</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.974163678914518</v>
@@ -38788,7 +38590,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58191534135971</v>
+        <v>1.581025887632292</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.926597195069445</v>
@@ -38877,7 +38679,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575080220870996</v>
+        <v>1.57950313834021</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.021645586666097</v>
@@ -38966,7 +38768,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584778813240085</v>
+        <v>1.589963294020587</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.234921901896833</v>
@@ -39055,7 +38857,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585715437783713</v>
+        <v>1.586708258212167</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.564819052478658</v>
@@ -39144,7 +38946,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56408168643056</v>
+        <v>1.576368265388556</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.430469332552256</v>
@@ -39233,7 +39035,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586467305218424</v>
+        <v>1.594104043534469</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.482510117013264</v>
@@ -39322,7 +39124,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.587153423107834</v>
+        <v>1.598676274858958</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.500229352589211</v>
@@ -39411,7 +39213,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569663628188674</v>
+        <v>1.576041932379572</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.393935495236797</v>
@@ -39500,7 +39302,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544929051833667</v>
+        <v>1.556458423221491</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.70688036742462</v>
@@ -39589,7 +39391,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55558342120681</v>
+        <v>1.568530553961803</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.745757251650245</v>
@@ -39678,7 +39480,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.588392670844044</v>
+        <v>1.594365610003157</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.506418783169372</v>
@@ -39767,7 +39569,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.609453750327916</v>
+        <v>1.621773631964481</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.541158265804855</v>
@@ -39856,7 +39658,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.597738503234826</v>
+        <v>1.610809298754053</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.406543787143667</v>
@@ -39945,7 +39747,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588004609759856</v>
+        <v>1.601977288926653</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.572324774273332</v>
@@ -40034,7 +39836,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.602504201890509</v>
+        <v>1.614141751490958</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.62322388335077</v>
@@ -40123,7 +39925,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.579724864272022</v>
+        <v>1.591463746130014</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.451495422529659</v>
@@ -40212,7 +40014,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580896462355288</v>
+        <v>1.602781373213078</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.508764525229716</v>
@@ -40301,7 +40103,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586025906345693</v>
+        <v>1.604862941266705</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.511263905625598</v>
@@ -40390,7 +40192,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590760136386474</v>
+        <v>1.608486464621365</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.486008850872707</v>
@@ -40479,7 +40281,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.592446430045182</v>
+        <v>1.608486133772796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.53383352598979</v>
@@ -40568,7 +40370,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.592904009487287</v>
+        <v>1.607644135088473</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.484162331580376</v>
@@ -40657,7 +40459,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592401701700477</v>
+        <v>1.604489155826188</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.569469589815725</v>
@@ -40746,7 +40548,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601277688590351</v>
+        <v>1.611690555170359</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.386101695212195</v>
@@ -40835,7 +40637,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.604224048530213</v>
+        <v>1.614307692468041</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.492741897328711</v>
@@ -40924,7 +40726,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596759818618626</v>
+        <v>1.604008640084836</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.522407281350704</v>
@@ -41013,7 +40815,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576956309653274</v>
+        <v>1.586329250070311</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.287189157076087</v>
@@ -41102,7 +40904,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569388512417684</v>
+        <v>1.574605068878434</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.426886092145149</v>
@@ -41191,7 +40993,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.589897480677322</v>
+        <v>1.592207774154229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.386983580852003</v>
@@ -41280,7 +41082,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.596846879339244</v>
+        <v>1.60065212437932</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.506545762694451</v>
@@ -41369,7 +41171,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.583877525415244</v>
+        <v>1.586378127034502</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.221588387229627</v>
@@ -41458,7 +41260,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624822143810633</v>
+        <v>1.6184757016431</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.350808579777142</v>
@@ -41547,7 +41349,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.610792163977555</v>
+        <v>1.599416611723056</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.419726041320937</v>
@@ -41636,7 +41438,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605797686787211</v>
+        <v>1.593274013940775</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.003830370755376</v>
@@ -41725,7 +41527,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570888536903091</v>
+        <v>1.56634439038393</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.689697736536504</v>
@@ -41814,7 +41616,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576696327766985</v>
+        <v>1.570659340822009</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.715079292704953</v>
@@ -41903,7 +41705,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610517371228947</v>
+        <v>1.604201221547404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.514369875059886</v>
@@ -41992,7 +41794,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617429452964941</v>
+        <v>1.612944103852391</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.574752284604656</v>
@@ -42081,7 +41883,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.612784858665802</v>
+        <v>1.607935407571162</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.672664219959123</v>
@@ -42170,7 +41972,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.565947816711203</v>
+        <v>1.563722833557682</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.112858917819127</v>
@@ -42259,7 +42061,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.564100435438061</v>
+        <v>1.559482398563209</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.044856877992432</v>
@@ -42348,7 +42150,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566250431856342</v>
+        <v>1.561844257406226</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.085556794600728</v>
@@ -42437,7 +42239,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.551635433186023</v>
+        <v>1.545381705938684</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.127045523249487</v>
@@ -42526,7 +42328,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.539216497551331</v>
+        <v>1.532661227666261</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.025265442937655</v>
@@ -42615,7 +42417,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.522867891486708</v>
+        <v>1.516108239160863</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.124083837248356</v>
@@ -42704,7 +42506,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.52707567521701</v>
+        <v>1.518696060785621</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.0576746182302</v>
@@ -42793,7 +42595,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.503864833532404</v>
+        <v>1.498739934991722</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.059163342217053</v>
@@ -42882,7 +42684,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.48808903087135</v>
+        <v>1.484816207768186</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.108313263634713</v>
@@ -42971,7 +42773,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.487160720389765</v>
+        <v>1.477391455298244</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.998847779650804</v>
@@ -43060,7 +42862,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.509710677491673</v>
+        <v>1.501337222302528</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.052797276835137</v>
@@ -43149,7 +42951,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.504749046577142</v>
+        <v>1.494781508203335</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.081229044356366</v>
@@ -43238,7 +43040,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.445006675937292</v>
+        <v>1.431282788432766</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.939344485294025</v>
@@ -43327,7 +43129,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.436659732024085</v>
+        <v>1.419925464627732</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.036658780049931</v>
@@ -43416,7 +43218,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.425848787142332</v>
+        <v>1.411012711292275</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.97579149290802</v>
@@ -43505,7 +43307,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.460478458971802</v>
+        <v>1.449163446573013</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.620971158556957</v>
@@ -43594,7 +43396,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.471756751649923</v>
+        <v>1.463744634326818</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.517996046577683</v>
@@ -43683,7 +43485,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.455811865123517</v>
+        <v>1.44312698633145</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.757711295282812</v>
@@ -43772,7 +43574,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.460350511805981</v>
+        <v>1.451660718196126</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.658862673299312</v>
@@ -43861,7 +43663,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.450313387990478</v>
+        <v>1.442880731047541</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.744858362271526</v>
@@ -43950,7 +43752,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.457239205882135</v>
+        <v>1.450344116245001</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.654997049228302</v>
@@ -44039,7 +43841,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.455246557290426</v>
+        <v>1.450610706801758</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.534321066026772</v>
@@ -44128,7 +43930,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.48249019307769</v>
+        <v>1.470551079348747</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.539311562256589</v>
@@ -44217,7 +44019,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.488092240051536</v>
+        <v>1.479906258025031</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.782366753586479</v>
@@ -44306,7 +44108,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.489495504836742</v>
+        <v>1.486497209236637</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.768498885949481</v>
@@ -44592,7 +44394,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499502611734681</v>
+        <v>1.513219512817169</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.177994723706124</v>
@@ -44681,7 +44483,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540385208646958</v>
+        <v>1.550068166073847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.326872890476113</v>
@@ -44770,7 +44572,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.452401234955776</v>
+        <v>1.442393628687681</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.358993112452791</v>
@@ -44859,7 +44661,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.457761307861174</v>
+        <v>1.450143818596027</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.091369906472447</v>
@@ -44948,7 +44750,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420876564421729</v>
+        <v>1.415663198666697</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.141770802990877</v>
@@ -45037,7 +44839,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.430867461497285</v>
+        <v>1.4274674575899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.105986918563437</v>
@@ -45126,7 +44928,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.438422204589421</v>
+        <v>1.420682969657484</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.117567992470323</v>
@@ -45215,7 +45017,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409188052894428</v>
+        <v>1.395308403042413</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.01432836375657</v>
@@ -45304,7 +45106,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.362292122227926</v>
+        <v>1.366141280936023</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.181631790892543</v>
@@ -45393,7 +45195,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.336823306591701</v>
+        <v>1.3417150419951</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.054902315735058</v>
@@ -45482,7 +45284,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.339860810271577</v>
+        <v>1.342083247800533</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.018044483608126</v>
@@ -45571,7 +45373,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343651652815483</v>
+        <v>1.348588352848484</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.021203521089974</v>
@@ -45660,7 +45462,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351347977605756</v>
+        <v>1.353622709505256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.929992256937883</v>
@@ -45749,7 +45551,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.369569937873825</v>
+        <v>1.37331541542847</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.993854248587353</v>
@@ -45838,7 +45640,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.354728064282391</v>
+        <v>1.356083989567466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.04945617242935</v>
@@ -45927,7 +45729,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.365046217871829</v>
+        <v>1.367489605345646</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.983362025135872</v>
@@ -46016,7 +45818,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.367456689607505</v>
+        <v>1.365636701319152</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.033582846577151</v>
@@ -46105,7 +45907,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.342154784992752</v>
+        <v>1.349214016906167</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.969881360001991</v>
@@ -46194,7 +45996,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.348472545712813</v>
+        <v>1.356261744023519</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.00987553399805</v>
@@ -46283,7 +46085,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.366062294849848</v>
+        <v>1.369745111700522</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.005193837025498</v>
@@ -46372,7 +46174,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.349334132996502</v>
+        <v>1.351235780447125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.034291516772973</v>
@@ -46461,7 +46263,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.360442891706477</v>
+        <v>1.357673713048267</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.859112966338087</v>
@@ -46550,7 +46352,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.400321733413715</v>
+        <v>1.397502370383225</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.852057125533307</v>
@@ -46639,7 +46441,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.448036362111325</v>
+        <v>1.439202866134992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.939424586211668</v>
@@ -46728,7 +46530,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.455789098893352</v>
+        <v>1.452555386367302</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.013139119970735</v>
@@ -46817,7 +46619,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.430584934783814</v>
+        <v>1.429463902322252</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.071705621879498</v>
@@ -46906,7 +46708,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.433982973176613</v>
+        <v>1.43363041256056</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.099411323208978</v>
@@ -46995,7 +46797,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.455834577160714</v>
+        <v>1.456965951684899</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.115857682431592</v>
@@ -47084,7 +46886,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.476977206690453</v>
+        <v>1.48456175698897</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.159508607231795</v>
@@ -47173,7 +46975,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465143675687366</v>
+        <v>1.477394302685219</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.191233431065025</v>
@@ -47262,7 +47064,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.453996815728288</v>
+        <v>1.466822306198159</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.238006165217525</v>
@@ -47351,7 +47153,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.479488220374913</v>
+        <v>1.493976060611031</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.204291663493226</v>
@@ -47440,7 +47242,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.485982342861644</v>
+        <v>1.497913311776086</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.254309652520499</v>
@@ -47529,7 +47331,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.483002929243125</v>
+        <v>1.493853504842937</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.23886165434977</v>
@@ -47618,7 +47420,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.490458564070697</v>
+        <v>1.500252772590692</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.246235854324362</v>
@@ -47707,7 +47509,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.493705340732465</v>
+        <v>1.502822052383224</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.226584873828509</v>
@@ -47796,7 +47598,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.512477273826102</v>
+        <v>1.522209734548452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.228922190495034</v>
@@ -47885,7 +47687,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515258795941081</v>
+        <v>1.524731656564541</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.233558147139148</v>
@@ -47974,7 +47776,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.512350473343248</v>
+        <v>1.518334184241127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.970539764228686</v>
@@ -48063,7 +47865,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.517716528919191</v>
+        <v>1.524861253416337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.164032418011575</v>
@@ -48152,7 +47954,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538978356867509</v>
+        <v>1.544404628222235</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.201334256804336</v>
@@ -48241,7 +48043,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525360891462298</v>
+        <v>1.530287504983995</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.216652958080447</v>
@@ -48330,7 +48132,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522554093547779</v>
+        <v>1.521962245693251</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.155160200754663</v>
@@ -48419,7 +48221,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489625657143208</v>
+        <v>1.480969655886406</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.05554932140478</v>
@@ -48508,7 +48310,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525863916917011</v>
+        <v>1.512388579532367</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.951853992026705</v>
@@ -48597,7 +48399,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.511491131722061</v>
+        <v>1.497866478645633</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.238086876671466</v>
@@ -48686,7 +48488,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459248686929012</v>
+        <v>1.448858327999815</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.180510083983382</v>
@@ -48775,7 +48577,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.451911289421044</v>
+        <v>1.44713954587421</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.152148254746898</v>
@@ -48864,7 +48666,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.414067700101904</v>
+        <v>1.419109395613029</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.167294157073127</v>
@@ -48953,7 +48755,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.412287676840705</v>
+        <v>1.420957844605551</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.159674323241068</v>
@@ -49042,7 +48844,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.428574406768608</v>
+        <v>1.437987097582317</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.19291779551013</v>
@@ -49131,7 +48933,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.388508019516579</v>
+        <v>1.397316433598343</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.048933937176444</v>
@@ -49220,7 +49022,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.38306038499647</v>
+        <v>1.389968365870867</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.030050252741187</v>
@@ -49309,7 +49111,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.404878333120875</v>
+        <v>1.413282811040231</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.054592495817921</v>
@@ -49398,7 +49200,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.403486735974502</v>
+        <v>1.40917824860287</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.039221447545271</v>
@@ -49487,7 +49289,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.414235946421112</v>
+        <v>1.421988429588797</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.98067982619248</v>
@@ -49576,7 +49378,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.420774793993497</v>
+        <v>1.433350314830224</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.079244441567382</v>
@@ -49665,7 +49467,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.442472904304106</v>
+        <v>1.454303715320304</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.086158102463964</v>
@@ -49754,7 +49556,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.421276322403208</v>
+        <v>1.439632253973854</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.079362103559688</v>
@@ -49843,7 +49645,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.417205800463392</v>
+        <v>1.436797881163637</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.014091173855062</v>
@@ -49932,7 +49734,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.441228159726633</v>
+        <v>1.459920021421373</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.018268985760801</v>
@@ -50021,7 +49823,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.491587290901462</v>
+        <v>1.50913245966812</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.043148685641669</v>
@@ -50110,7 +49912,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.512812214239738</v>
+        <v>1.5237115318884</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.035321490234789</v>
@@ -50199,7 +50001,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.577349016698308</v>
+        <v>1.575803423747029</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.052444236450023</v>
@@ -50288,7 +50090,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.580892991997144</v>
+        <v>1.578961675317729</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.061185747140792</v>
@@ -50377,7 +50179,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.586006168536773</v>
+        <v>1.584517628431008</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.116308623156497</v>
@@ -50466,7 +50268,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.657758419105506</v>
+        <v>1.647731910780571</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.963338499128144</v>
@@ -50555,7 +50357,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.683244111993495</v>
+        <v>1.673399954368915</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.105617275384661</v>
@@ -50644,7 +50446,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.616522286745556</v>
+        <v>1.617115132086517</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.177548593610684</v>
@@ -50733,7 +50535,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.619252059512972</v>
+        <v>1.621875212821576</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.17043295265435</v>
@@ -50822,7 +50624,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.622966345020744</v>
+        <v>1.619551800882478</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.21935747562475</v>
@@ -50911,7 +50713,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.62742765686983</v>
+        <v>1.617684353013997</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.239849499444892</v>
@@ -51000,7 +50802,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.644050671415566</v>
+        <v>1.631390740119864</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.444798095156174</v>
@@ -51089,7 +50891,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.687409098964848</v>
+        <v>1.663181773765938</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.257084245841937</v>
@@ -51178,7 +50980,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.71552782323952</v>
+        <v>1.687733025914935</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.233339810435615</v>
@@ -51267,7 +51069,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.712971179056637</v>
+        <v>1.685734700487089</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.256429673012244</v>
